--- a/data/pca/factorExposure/factorExposure_2009-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01708007241651879</v>
+        <v>0.01674777291475515</v>
       </c>
       <c r="C2">
-        <v>0.001536509993691063</v>
+        <v>0.001158265516271173</v>
       </c>
       <c r="D2">
-        <v>0.008621168348572896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009011630368798441</v>
+      </c>
+      <c r="E2">
+        <v>-0.001659185075352258</v>
+      </c>
+      <c r="F2">
+        <v>-0.01214373852130972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09059664590187397</v>
+        <v>0.09164938634549671</v>
       </c>
       <c r="C4">
-        <v>0.01975084506389713</v>
+        <v>0.0148908591868982</v>
       </c>
       <c r="D4">
-        <v>0.07715231428613523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08195228287343954</v>
+      </c>
+      <c r="E4">
+        <v>-0.02654614508394993</v>
+      </c>
+      <c r="F4">
+        <v>0.03108624134844819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.602977080124414e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.436908358708901e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.40209344226757e-05</v>
+      </c>
+      <c r="E5">
+        <v>3.729996563457639e-05</v>
+      </c>
+      <c r="F5">
+        <v>-9.505118995781609e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1533199256407089</v>
+        <v>0.161921684715677</v>
       </c>
       <c r="C6">
-        <v>0.02991595276005156</v>
+        <v>0.02927529528034995</v>
       </c>
       <c r="D6">
-        <v>-0.03621081564541293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02638014728130393</v>
+      </c>
+      <c r="E6">
+        <v>-0.01113510465960532</v>
+      </c>
+      <c r="F6">
+        <v>0.04081448780744341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05998179311807782</v>
+        <v>0.06203979427426398</v>
       </c>
       <c r="C7">
-        <v>0.001895168233577041</v>
+        <v>-0.001519347082610057</v>
       </c>
       <c r="D7">
-        <v>0.04810295811464863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05314929766084202</v>
+      </c>
+      <c r="E7">
+        <v>-0.0134126223945905</v>
+      </c>
+      <c r="F7">
+        <v>0.04897686941047921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06145860609482241</v>
+        <v>0.05690839915512256</v>
       </c>
       <c r="C8">
-        <v>-0.01038882229161128</v>
+        <v>-0.01233443940994008</v>
       </c>
       <c r="D8">
-        <v>0.02723639892059023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03147265570774771</v>
+      </c>
+      <c r="E8">
+        <v>-0.01770007532660563</v>
+      </c>
+      <c r="F8">
+        <v>-0.02742369852754585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06981394967188957</v>
+        <v>0.07093542748423852</v>
       </c>
       <c r="C9">
-        <v>0.01570754113836015</v>
+        <v>0.01052321595096407</v>
       </c>
       <c r="D9">
-        <v>0.07868905644482478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08476347316807227</v>
+      </c>
+      <c r="E9">
+        <v>-0.02347481634353677</v>
+      </c>
+      <c r="F9">
+        <v>0.0478041880583031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08482758914311536</v>
+        <v>0.08683133380077349</v>
       </c>
       <c r="C10">
-        <v>0.01558393790458379</v>
+        <v>0.02156776951261496</v>
       </c>
       <c r="D10">
-        <v>-0.1678759221979205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1601127322686077</v>
+      </c>
+      <c r="E10">
+        <v>0.03377065651409254</v>
+      </c>
+      <c r="F10">
+        <v>-0.05767596684253905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09138293850074676</v>
+        <v>0.08780691277031616</v>
       </c>
       <c r="C11">
-        <v>0.01710128275970741</v>
+        <v>0.01167209535599605</v>
       </c>
       <c r="D11">
-        <v>0.1098962287624757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171471086770436</v>
+      </c>
+      <c r="E11">
+        <v>-0.04794021905741815</v>
+      </c>
+      <c r="F11">
+        <v>0.02441182722417323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09667840542989287</v>
+        <v>0.09088325221916013</v>
       </c>
       <c r="C12">
-        <v>0.01530550453616703</v>
+        <v>0.009150519603541695</v>
       </c>
       <c r="D12">
-        <v>0.1170474057933275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316502312363838</v>
+      </c>
+      <c r="E12">
+        <v>-0.04805329607526135</v>
+      </c>
+      <c r="F12">
+        <v>0.03116444449454454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04444397006411609</v>
+        <v>0.04351610160116666</v>
       </c>
       <c r="C13">
-        <v>0.006473531806771327</v>
+        <v>0.00258591684075607</v>
       </c>
       <c r="D13">
-        <v>0.04369985292697644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05411325495976505</v>
+      </c>
+      <c r="E13">
+        <v>0.0004473056964405097</v>
+      </c>
+      <c r="F13">
+        <v>0.004595646826566852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0195181795198072</v>
+        <v>0.0235802217498996</v>
       </c>
       <c r="C14">
-        <v>0.01501326898912592</v>
+        <v>0.01379256461930557</v>
       </c>
       <c r="D14">
-        <v>0.03116174723165467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03223334729367621</v>
+      </c>
+      <c r="E14">
+        <v>-0.01828876464217157</v>
+      </c>
+      <c r="F14">
+        <v>0.01150949214298115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03445817427709048</v>
+        <v>0.03423362072941988</v>
       </c>
       <c r="C15">
-        <v>0.007541498167601598</v>
+        <v>0.005526413561415627</v>
       </c>
       <c r="D15">
-        <v>0.0448270079792281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04656909169475453</v>
+      </c>
+      <c r="E15">
+        <v>-0.008407153212910499</v>
+      </c>
+      <c r="F15">
+        <v>0.02920745643080078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07493753257161154</v>
+        <v>0.07261057137203296</v>
       </c>
       <c r="C16">
-        <v>0.007519803802646534</v>
+        <v>0.001766546305095602</v>
       </c>
       <c r="D16">
-        <v>0.1147782970685463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1280379379227335</v>
+      </c>
+      <c r="E16">
+        <v>-0.06214933989473993</v>
+      </c>
+      <c r="F16">
+        <v>0.02723161112982996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0008880646387323847</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003149239743434129</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001996798168616963</v>
+      </c>
+      <c r="E17">
+        <v>-0.001543113772662268</v>
+      </c>
+      <c r="F17">
+        <v>-0.002519310604401824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02340936534567081</v>
+        <v>0.04124774707655667</v>
       </c>
       <c r="C18">
-        <v>-0.002351185738514008</v>
+        <v>-0.002297245909648801</v>
       </c>
       <c r="D18">
-        <v>0.02351309873601133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01544100488086187</v>
+      </c>
+      <c r="E18">
+        <v>0.00532170464636805</v>
+      </c>
+      <c r="F18">
+        <v>-0.009365481380672126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06366002622971333</v>
+        <v>0.06218993104520674</v>
       </c>
       <c r="C20">
-        <v>0.005240047658666867</v>
+        <v>0.001142862979494105</v>
       </c>
       <c r="D20">
-        <v>0.07154763634401638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07867933442217054</v>
+      </c>
+      <c r="E20">
+        <v>-0.05775603943243161</v>
+      </c>
+      <c r="F20">
+        <v>0.02916203995760079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04035506820755918</v>
+        <v>0.04181040810630915</v>
       </c>
       <c r="C21">
-        <v>0.009665327528938391</v>
+        <v>0.006772268459811577</v>
       </c>
       <c r="D21">
-        <v>0.0329191955838885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03598517939221276</v>
+      </c>
+      <c r="E21">
+        <v>0.001723415573134358</v>
+      </c>
+      <c r="F21">
+        <v>-0.02469490558264133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04042903196796301</v>
+        <v>0.04395436950359104</v>
       </c>
       <c r="C22">
-        <v>0.001698567277724775</v>
+        <v>0.0009727228705012485</v>
       </c>
       <c r="D22">
-        <v>0.0006758698721764777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007029495557502853</v>
+      </c>
+      <c r="E22">
+        <v>-0.03730283382027237</v>
+      </c>
+      <c r="F22">
+        <v>-0.04666052867924936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04039130396166411</v>
+        <v>0.04392990271270088</v>
       </c>
       <c r="C23">
-        <v>0.001687680664250832</v>
+        <v>0.0009634512916486242</v>
       </c>
       <c r="D23">
-        <v>0.0007005613549195701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007043512678547123</v>
+      </c>
+      <c r="E23">
+        <v>-0.03748562637380107</v>
+      </c>
+      <c r="F23">
+        <v>-0.0466329934815454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0823415843322457</v>
+        <v>0.07837342317284557</v>
       </c>
       <c r="C24">
-        <v>0.008177141489520416</v>
+        <v>0.002604697982234389</v>
       </c>
       <c r="D24">
-        <v>0.1141115074885858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200051128487116</v>
+      </c>
+      <c r="E24">
+        <v>-0.04961974473241896</v>
+      </c>
+      <c r="F24">
+        <v>0.02993777852640211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08719044270287291</v>
+        <v>0.08361120064437302</v>
       </c>
       <c r="C25">
-        <v>0.01044378963347981</v>
+        <v>0.005365917759069808</v>
       </c>
       <c r="D25">
-        <v>0.102116780200585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093855968449548</v>
+      </c>
+      <c r="E25">
+        <v>-0.03304473944511509</v>
+      </c>
+      <c r="F25">
+        <v>0.02734432904396951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05770981751231459</v>
+        <v>0.06000950732629403</v>
       </c>
       <c r="C26">
-        <v>0.01798311980563732</v>
+        <v>0.01473541423769053</v>
       </c>
       <c r="D26">
-        <v>0.0321352954253408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04322585183414338</v>
+      </c>
+      <c r="E26">
+        <v>-0.02917012794656405</v>
+      </c>
+      <c r="F26">
+        <v>-0.008033098108479242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1328892302362979</v>
+        <v>0.1418137373598791</v>
       </c>
       <c r="C28">
-        <v>0.01468507173059786</v>
+        <v>0.02346709874056707</v>
       </c>
       <c r="D28">
-        <v>-0.2667847626473511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605905941934935</v>
+      </c>
+      <c r="E28">
+        <v>0.06872804432099092</v>
+      </c>
+      <c r="F28">
+        <v>0.004324896164269478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02604321116386797</v>
+        <v>0.02889461992878435</v>
       </c>
       <c r="C29">
-        <v>0.009809106698449054</v>
+        <v>0.009064156175168311</v>
       </c>
       <c r="D29">
-        <v>0.02923759315151969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02993629035664626</v>
+      </c>
+      <c r="E29">
+        <v>-0.0132362518482947</v>
+      </c>
+      <c r="F29">
+        <v>-0.01384075952321745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05992058317682527</v>
+        <v>0.05703879622360079</v>
       </c>
       <c r="C30">
-        <v>0.008059959373026135</v>
+        <v>0.002687821216719328</v>
       </c>
       <c r="D30">
-        <v>0.07898307007873771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08784104739987129</v>
+      </c>
+      <c r="E30">
+        <v>-0.01376942631217145</v>
+      </c>
+      <c r="F30">
+        <v>0.07782968752056399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05116908407044194</v>
+        <v>0.05166761564527397</v>
       </c>
       <c r="C31">
-        <v>0.01749610642174992</v>
+        <v>0.01631839468757706</v>
       </c>
       <c r="D31">
-        <v>0.02171253669575315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02423292083047079</v>
+      </c>
+      <c r="E31">
+        <v>-0.02860681892532238</v>
+      </c>
+      <c r="F31">
+        <v>-0.0004026710206795384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04811695809265513</v>
+        <v>0.05179164000406299</v>
       </c>
       <c r="C32">
-        <v>0.00207622421026316</v>
+        <v>-0.00133120869255559</v>
       </c>
       <c r="D32">
-        <v>0.02973173783354388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03414120173357602</v>
+      </c>
+      <c r="E32">
+        <v>-0.0333074736096498</v>
+      </c>
+      <c r="F32">
+        <v>0.002313891496353247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09004886344704484</v>
+        <v>0.08903260573216748</v>
       </c>
       <c r="C33">
-        <v>0.01312489955316162</v>
+        <v>0.007293573988315491</v>
       </c>
       <c r="D33">
-        <v>0.0892997689744203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103388187346206</v>
+      </c>
+      <c r="E33">
+        <v>-0.04669672348876572</v>
+      </c>
+      <c r="F33">
+        <v>0.04255399711775886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06914675287815383</v>
+        <v>0.06727459890648776</v>
       </c>
       <c r="C34">
-        <v>0.0155579298787435</v>
+        <v>0.01076363270941283</v>
       </c>
       <c r="D34">
-        <v>0.09611057029987968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1083858951796833</v>
+      </c>
+      <c r="E34">
+        <v>-0.03534305107856398</v>
+      </c>
+      <c r="F34">
+        <v>0.03469656310269606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02525686059966735</v>
+        <v>0.02677108769136828</v>
       </c>
       <c r="C35">
-        <v>0.003832013406303794</v>
+        <v>0.003320413196985405</v>
       </c>
       <c r="D35">
-        <v>0.007873825889942745</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01190263416203754</v>
+      </c>
+      <c r="E35">
+        <v>-0.0127912386983138</v>
+      </c>
+      <c r="F35">
+        <v>0.000528260105470539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02497319448552101</v>
+        <v>0.02858997918793203</v>
       </c>
       <c r="C36">
-        <v>0.008055249435032564</v>
+        <v>0.007165479474302838</v>
       </c>
       <c r="D36">
-        <v>0.03900056762864015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03880965744801868</v>
+      </c>
+      <c r="E36">
+        <v>-0.01765846642432728</v>
+      </c>
+      <c r="F36">
+        <v>0.01387155355370707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001615842644065011</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007471603566572299</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002852356045718741</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001378401028879905</v>
+      </c>
+      <c r="F37">
+        <v>-0.001653972674402836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1114053818713142</v>
+        <v>0.100344189067932</v>
       </c>
       <c r="C39">
-        <v>0.02300215217906475</v>
+        <v>0.01640743257714197</v>
       </c>
       <c r="D39">
-        <v>0.1466918774259341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1506534953483328</v>
+      </c>
+      <c r="E39">
+        <v>-0.05883462142771505</v>
+      </c>
+      <c r="F39">
+        <v>0.02104229836060837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03870861814594487</v>
+        <v>0.0438223684838303</v>
       </c>
       <c r="C40">
-        <v>0.009395316719655869</v>
+        <v>0.007855554465400023</v>
       </c>
       <c r="D40">
-        <v>0.02331736363268071</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03259525127953218</v>
+      </c>
+      <c r="E40">
+        <v>-0.00198759055505623</v>
+      </c>
+      <c r="F40">
+        <v>-0.0154310362363509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02481479980156996</v>
+        <v>0.02685459077466659</v>
       </c>
       <c r="C41">
-        <v>0.007349538904736347</v>
+        <v>0.006888916591700654</v>
       </c>
       <c r="D41">
-        <v>0.008505333076156672</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01055037773702345</v>
+      </c>
+      <c r="E41">
+        <v>-0.01164656732009852</v>
+      </c>
+      <c r="F41">
+        <v>-0.007470565970316403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04218195776732671</v>
+        <v>0.04027374315922713</v>
       </c>
       <c r="C43">
-        <v>0.008526893816782821</v>
+        <v>0.007867708727863054</v>
       </c>
       <c r="D43">
-        <v>0.01664044826020504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01905903781167933</v>
+      </c>
+      <c r="E43">
+        <v>-0.02566594851824801</v>
+      </c>
+      <c r="F43">
+        <v>-0.01626779110372207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06896920926432626</v>
+        <v>0.07800507268072329</v>
       </c>
       <c r="C44">
-        <v>0.02444164227117685</v>
+        <v>0.01993314721404321</v>
       </c>
       <c r="D44">
-        <v>0.09488876355845771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09631796823632983</v>
+      </c>
+      <c r="E44">
+        <v>-0.06236643590373056</v>
+      </c>
+      <c r="F44">
+        <v>0.1680534188485912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02110338459830611</v>
+        <v>0.02434962782651368</v>
       </c>
       <c r="C46">
-        <v>0.004519568721412639</v>
+        <v>0.003654561858786859</v>
       </c>
       <c r="D46">
-        <v>0.009219349997671081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01270376166981562</v>
+      </c>
+      <c r="E46">
+        <v>-0.026709087164448</v>
+      </c>
+      <c r="F46">
+        <v>-0.0058248038669307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05329906186316129</v>
+        <v>0.05259427966784024</v>
       </c>
       <c r="C47">
-        <v>0.005385808537660242</v>
+        <v>0.004608023161072158</v>
       </c>
       <c r="D47">
-        <v>0.006870497799677922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01055634286530963</v>
+      </c>
+      <c r="E47">
+        <v>-0.02304288815090779</v>
+      </c>
+      <c r="F47">
+        <v>-0.03156943752851958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04868441300618415</v>
+        <v>0.05131526794297005</v>
       </c>
       <c r="C48">
-        <v>0.005107514456341096</v>
+        <v>0.002465821477748251</v>
       </c>
       <c r="D48">
-        <v>0.04649173635017476</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05002669877638528</v>
+      </c>
+      <c r="E48">
+        <v>0.004314139795799132</v>
+      </c>
+      <c r="F48">
+        <v>0.01245786385457173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1992727959347236</v>
+        <v>0.2005385543522286</v>
       </c>
       <c r="C49">
-        <v>0.02291429810627158</v>
+        <v>0.02128853614916887</v>
       </c>
       <c r="D49">
-        <v>-0.01436177548282483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004881209386116274</v>
+      </c>
+      <c r="E49">
+        <v>-0.03424848819603204</v>
+      </c>
+      <c r="F49">
+        <v>0.04873859183290985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04902785747876782</v>
+        <v>0.05131123037750047</v>
       </c>
       <c r="C50">
-        <v>0.01309587071456635</v>
+        <v>0.01187366952499206</v>
       </c>
       <c r="D50">
-        <v>0.02117628410389876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02324872600487812</v>
+      </c>
+      <c r="E50">
+        <v>-0.02978628849761799</v>
+      </c>
+      <c r="F50">
+        <v>0.00920283328519764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1554539036229366</v>
+        <v>0.1486496698302189</v>
       </c>
       <c r="C52">
-        <v>0.02131231398508657</v>
+        <v>0.01941057405761668</v>
       </c>
       <c r="D52">
-        <v>0.04182099889256161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04259768745485479</v>
+      </c>
+      <c r="E52">
+        <v>-0.02310298124400873</v>
+      </c>
+      <c r="F52">
+        <v>0.04188825550557642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1742460163533562</v>
+        <v>0.1689978994106121</v>
       </c>
       <c r="C53">
-        <v>0.02218740200475448</v>
+        <v>0.0224529218552415</v>
       </c>
       <c r="D53">
-        <v>0.006898817706268038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005929721388240725</v>
+      </c>
+      <c r="E53">
+        <v>-0.03097558595850364</v>
+      </c>
+      <c r="F53">
+        <v>0.07509763908983808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01801809588316431</v>
+        <v>0.01992196380584385</v>
       </c>
       <c r="C54">
-        <v>0.01233100447081894</v>
+        <v>0.01108947912918989</v>
       </c>
       <c r="D54">
-        <v>0.03076423866069609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03153523024742465</v>
+      </c>
+      <c r="E54">
+        <v>-0.02052868825666137</v>
+      </c>
+      <c r="F54">
+        <v>-0.002310645197919276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1181700925869309</v>
+        <v>0.1165540554324075</v>
       </c>
       <c r="C55">
-        <v>0.01958696409116203</v>
+        <v>0.01960435722368611</v>
       </c>
       <c r="D55">
-        <v>0.00469050028691443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007978018361513116</v>
+      </c>
+      <c r="E55">
+        <v>-0.02659867585941509</v>
+      </c>
+      <c r="F55">
+        <v>0.04674963364206649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807139707940252</v>
+        <v>0.1759630631881647</v>
       </c>
       <c r="C56">
-        <v>0.02020375158647812</v>
+        <v>0.02062715765069406</v>
       </c>
       <c r="D56">
-        <v>-0.007175512889418621</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00322933111049837</v>
+      </c>
+      <c r="E56">
+        <v>-0.03313339544565028</v>
+      </c>
+      <c r="F56">
+        <v>0.05542474574028936</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04777619309422014</v>
+        <v>0.04601967761755733</v>
       </c>
       <c r="C58">
-        <v>0.005050209699604867</v>
+        <v>0.0003671674040690226</v>
       </c>
       <c r="D58">
-        <v>0.06674066244607468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07654905852835003</v>
+      </c>
+      <c r="E58">
+        <v>-0.03711446161875514</v>
+      </c>
+      <c r="F58">
+        <v>-0.03870580189340619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1596360137613865</v>
+        <v>0.166309119246088</v>
       </c>
       <c r="C59">
-        <v>0.01647392072253982</v>
+        <v>0.0237906289778428</v>
       </c>
       <c r="D59">
-        <v>-0.2275301768082034</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2182212776536499</v>
+      </c>
+      <c r="E59">
+        <v>0.05067766389916844</v>
+      </c>
+      <c r="F59">
+        <v>-0.03873548924085806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2390753401426414</v>
+        <v>0.2304950237077913</v>
       </c>
       <c r="C60">
-        <v>0.004229044140516821</v>
+        <v>0.001277798655258213</v>
       </c>
       <c r="D60">
-        <v>0.0360037678241561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03908087056325961</v>
+      </c>
+      <c r="E60">
+        <v>-0.007060648763160539</v>
+      </c>
+      <c r="F60">
+        <v>0.006344690204152618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0819326232835508</v>
+        <v>0.0751388600275134</v>
       </c>
       <c r="C61">
-        <v>0.01687341331862824</v>
+        <v>0.01135740596929372</v>
       </c>
       <c r="D61">
-        <v>0.108772749355719</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155219124593769</v>
+      </c>
+      <c r="E61">
+        <v>-0.03657503015808927</v>
+      </c>
+      <c r="F61">
+        <v>0.007344002146162542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1729476464110416</v>
+        <v>0.1694342636042736</v>
       </c>
       <c r="C62">
-        <v>0.0240739656881935</v>
+        <v>0.02346457716698083</v>
       </c>
       <c r="D62">
-        <v>-2.702261267767558e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005821665684908751</v>
+      </c>
+      <c r="E62">
+        <v>-0.03508298773377605</v>
+      </c>
+      <c r="F62">
+        <v>0.04161185542024987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04122297788241688</v>
+        <v>0.04548957377516697</v>
       </c>
       <c r="C63">
-        <v>0.005325966972406444</v>
+        <v>0.001964165860657583</v>
       </c>
       <c r="D63">
-        <v>0.04875061175580079</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05960414362252409</v>
+      </c>
+      <c r="E63">
+        <v>-0.02370088839331277</v>
+      </c>
+      <c r="F63">
+        <v>0.0002300474008601793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1135200566294104</v>
+        <v>0.1110202999227274</v>
       </c>
       <c r="C64">
-        <v>0.01628670221926474</v>
+        <v>0.01323839443385022</v>
       </c>
       <c r="D64">
-        <v>0.03398000814970373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0421711636982058</v>
+      </c>
+      <c r="E64">
+        <v>-0.02419631616599473</v>
+      </c>
+      <c r="F64">
+        <v>0.02617449945261249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1454691455189227</v>
+        <v>0.1524545943391118</v>
       </c>
       <c r="C65">
-        <v>0.0362322261817264</v>
+        <v>0.03634888815088359</v>
       </c>
       <c r="D65">
-        <v>-0.05864890284073464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04586852714264971</v>
+      </c>
+      <c r="E65">
+        <v>-0.008719554564959474</v>
+      </c>
+      <c r="F65">
+        <v>0.03791329498761809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1341044031185256</v>
+        <v>0.1203851037118229</v>
       </c>
       <c r="C66">
-        <v>0.02150754040507483</v>
+        <v>0.01476340757855065</v>
       </c>
       <c r="D66">
-        <v>0.1290758761735808</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1397318618747097</v>
+      </c>
+      <c r="E66">
+        <v>-0.0637257600932037</v>
+      </c>
+      <c r="F66">
+        <v>0.02655052054057773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06378431899806865</v>
+        <v>0.05635295651898371</v>
       </c>
       <c r="C67">
-        <v>0.006129322690668827</v>
+        <v>0.003849565534943623</v>
       </c>
       <c r="D67">
-        <v>0.05400775922576102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05748717718893426</v>
+      </c>
+      <c r="E67">
+        <v>-0.01943559456333192</v>
+      </c>
+      <c r="F67">
+        <v>-0.03402654876634976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1059002469383726</v>
+        <v>0.1164403181969881</v>
       </c>
       <c r="C68">
-        <v>0.02468703162031105</v>
+        <v>0.03419422703164903</v>
       </c>
       <c r="D68">
-        <v>-0.2641243734475978</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609460463990639</v>
+      </c>
+      <c r="E68">
+        <v>0.08934960391006476</v>
+      </c>
+      <c r="F68">
+        <v>0.0007659990640379167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03906061710669006</v>
+        <v>0.03795387762833261</v>
       </c>
       <c r="C69">
-        <v>0.002262473066924509</v>
+        <v>0.001379782490931793</v>
       </c>
       <c r="D69">
-        <v>0.006883619065665614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008388297985038711</v>
+      </c>
+      <c r="E69">
+        <v>-0.02388256757795437</v>
+      </c>
+      <c r="F69">
+        <v>-0.0001825390947870815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06598563977294244</v>
+        <v>0.06684513577610297</v>
       </c>
       <c r="C70">
-        <v>-0.02426001938299648</v>
+        <v>-0.02665798879897268</v>
       </c>
       <c r="D70">
-        <v>0.01965889294953729</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02563126941297089</v>
+      </c>
+      <c r="E70">
+        <v>0.03139404974319512</v>
+      </c>
+      <c r="F70">
+        <v>-0.1813709220775301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.124751938324835</v>
+        <v>0.1364448050086971</v>
       </c>
       <c r="C71">
-        <v>0.02934523470230963</v>
+        <v>0.03886998927041958</v>
       </c>
       <c r="D71">
-        <v>-0.2807689683754453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2708270304542805</v>
+      </c>
+      <c r="E71">
+        <v>0.09843457928714042</v>
+      </c>
+      <c r="F71">
+        <v>0.006348320911294221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1371868383844908</v>
+        <v>0.1438174434922145</v>
       </c>
       <c r="C72">
-        <v>0.02866026195838531</v>
+        <v>0.02916014645028448</v>
       </c>
       <c r="D72">
-        <v>0.0009117714504406812</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00403232385130482</v>
+      </c>
+      <c r="E72">
+        <v>-0.03907130819452984</v>
+      </c>
+      <c r="F72">
+        <v>0.02711297988201216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2041272924848244</v>
+        <v>0.2040750583537088</v>
       </c>
       <c r="C73">
-        <v>0.01804567994527956</v>
+        <v>0.01448014817445884</v>
       </c>
       <c r="D73">
-        <v>0.006933167493278611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01766664890820329</v>
+      </c>
+      <c r="E73">
+        <v>-0.06760526050528015</v>
+      </c>
+      <c r="F73">
+        <v>0.04416074953510229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09194387297637739</v>
+        <v>0.09326783397326387</v>
       </c>
       <c r="C74">
-        <v>0.01478510870077022</v>
+        <v>0.01432796748059859</v>
       </c>
       <c r="D74">
-        <v>0.01528372522006538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01716320026102598</v>
+      </c>
+      <c r="E74">
+        <v>-0.04408539009312916</v>
+      </c>
+      <c r="F74">
+        <v>0.05234196070266329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1339696421467903</v>
+        <v>0.1263766741792417</v>
       </c>
       <c r="C75">
-        <v>0.03191000004588195</v>
+        <v>0.03029038684749667</v>
       </c>
       <c r="D75">
-        <v>0.0231676311681538</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02890922593043946</v>
+      </c>
+      <c r="E75">
+        <v>-0.05743235619143901</v>
+      </c>
+      <c r="F75">
+        <v>0.02161826844188801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08243175332014502</v>
+        <v>0.09223701025235569</v>
       </c>
       <c r="C77">
-        <v>0.01415538656496661</v>
+        <v>0.008900950263847228</v>
       </c>
       <c r="D77">
-        <v>0.1120294874580153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1155065433575329</v>
+      </c>
+      <c r="E77">
+        <v>-0.04778894182780565</v>
+      </c>
+      <c r="F77">
+        <v>0.03568075465360818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1004700819233743</v>
+        <v>0.1009857805835265</v>
       </c>
       <c r="C78">
-        <v>0.0439959896947331</v>
+        <v>0.03963277269260117</v>
       </c>
       <c r="D78">
-        <v>0.109524996459095</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1099375611819312</v>
+      </c>
+      <c r="E78">
+        <v>-0.07591991239302916</v>
+      </c>
+      <c r="F78">
+        <v>0.05443723534882186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.166207699091562</v>
+        <v>0.1632063121148779</v>
       </c>
       <c r="C79">
-        <v>0.02677706154541763</v>
+        <v>0.02567373023868991</v>
       </c>
       <c r="D79">
-        <v>0.0062769462020294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01191221150872075</v>
+      </c>
+      <c r="E79">
+        <v>-0.04442427868960915</v>
+      </c>
+      <c r="F79">
+        <v>0.01280542103012978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08176102487216776</v>
+        <v>0.08008240874934401</v>
       </c>
       <c r="C80">
-        <v>0.00249942967703028</v>
+        <v>-0.0001149137690175146</v>
       </c>
       <c r="D80">
-        <v>0.05199294559477552</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05358889241321454</v>
+      </c>
+      <c r="E80">
+        <v>-0.03347032802622476</v>
+      </c>
+      <c r="F80">
+        <v>-0.02650483722921069</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1212119485046382</v>
+        <v>0.1166469090632123</v>
       </c>
       <c r="C81">
-        <v>0.03400647011106363</v>
+        <v>0.03371983763854864</v>
       </c>
       <c r="D81">
-        <v>0.0083850510991404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01260886035318274</v>
+      </c>
+      <c r="E81">
+        <v>-0.05444448686378186</v>
+      </c>
+      <c r="F81">
+        <v>0.01785820126244727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1660408807369203</v>
+        <v>0.1649915817123304</v>
       </c>
       <c r="C82">
-        <v>0.02740128669318315</v>
+        <v>0.02796396604134269</v>
       </c>
       <c r="D82">
-        <v>0.005058084041838665</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002996961731491317</v>
+      </c>
+      <c r="E82">
+        <v>-0.02900444491006003</v>
+      </c>
+      <c r="F82">
+        <v>0.08251407069729988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06376551236541809</v>
+        <v>0.05744010139032183</v>
       </c>
       <c r="C83">
-        <v>0.005978513752361569</v>
+        <v>0.003559689072665912</v>
       </c>
       <c r="D83">
-        <v>0.04514000187943253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04792793897886332</v>
+      </c>
+      <c r="E83">
+        <v>-0.001468855109514824</v>
+      </c>
+      <c r="F83">
+        <v>-0.03694584063878562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06117547062610497</v>
+        <v>0.05530091563839507</v>
       </c>
       <c r="C84">
-        <v>0.01364249676197278</v>
+        <v>0.01095724207471603</v>
       </c>
       <c r="D84">
-        <v>0.06925635014447726</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07220518819888128</v>
+      </c>
+      <c r="E84">
+        <v>-0.0134409470842353</v>
+      </c>
+      <c r="F84">
+        <v>0.01490525619867002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1394867691765241</v>
+        <v>0.1349840213550537</v>
       </c>
       <c r="C85">
-        <v>0.0307724879074205</v>
+        <v>0.03045710213592926</v>
       </c>
       <c r="D85">
-        <v>0.006989060151574831</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009303843945811512</v>
+      </c>
+      <c r="E85">
+        <v>-0.03706125371145296</v>
+      </c>
+      <c r="F85">
+        <v>0.04799291904967874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1021664964127681</v>
+        <v>0.09333719923862117</v>
       </c>
       <c r="C86">
-        <v>-0.002514921290354896</v>
+        <v>-0.005208238944682671</v>
       </c>
       <c r="D86">
-        <v>0.01498051609268591</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05078041222884135</v>
+      </c>
+      <c r="E86">
+        <v>-0.2215934411131343</v>
+      </c>
+      <c r="F86">
+        <v>-0.8990189180670058</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09706474430540096</v>
+        <v>0.09311720346023934</v>
       </c>
       <c r="C87">
-        <v>0.02843405449983018</v>
+        <v>0.02021451331408913</v>
       </c>
       <c r="D87">
-        <v>0.07338553903055262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09519696992025899</v>
+      </c>
+      <c r="E87">
+        <v>0.0516836442818751</v>
+      </c>
+      <c r="F87">
+        <v>0.05017527925821188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06230051800849131</v>
+        <v>0.06087875248840903</v>
       </c>
       <c r="C88">
-        <v>0.00555242453156445</v>
+        <v>0.002814217089603682</v>
       </c>
       <c r="D88">
-        <v>0.04986520476240981</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0499553665172887</v>
+      </c>
+      <c r="E88">
+        <v>-0.02472881349549879</v>
+      </c>
+      <c r="F88">
+        <v>0.01370303879406509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1163792245191079</v>
+        <v>0.1263395685788792</v>
       </c>
       <c r="C89">
-        <v>0.005803787822271677</v>
+        <v>0.0143584030601366</v>
       </c>
       <c r="D89">
-        <v>-0.2437515047816703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2432193259201129</v>
+      </c>
+      <c r="E89">
+        <v>0.09246969618898276</v>
+      </c>
+      <c r="F89">
+        <v>-0.007702039488776746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.137244773603746</v>
+        <v>0.1516581368553051</v>
       </c>
       <c r="C90">
-        <v>0.02567943210555333</v>
+        <v>0.03569075162428252</v>
       </c>
       <c r="D90">
-        <v>-0.2673102435293539</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2682268057929507</v>
+      </c>
+      <c r="E90">
+        <v>0.1143234858831362</v>
+      </c>
+      <c r="F90">
+        <v>-0.008724407064922205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1214398390238974</v>
+        <v>0.1201756053769268</v>
       </c>
       <c r="C91">
-        <v>0.02146194716842531</v>
+        <v>0.02186301762081161</v>
       </c>
       <c r="D91">
-        <v>-0.01958392624656555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01699207321892786</v>
+      </c>
+      <c r="E91">
+        <v>-0.05402142490885214</v>
+      </c>
+      <c r="F91">
+        <v>-0.001714146525542778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1364605379277695</v>
+        <v>0.1444823879501413</v>
       </c>
       <c r="C92">
-        <v>0.01632308559991891</v>
+        <v>0.02658005592613913</v>
       </c>
       <c r="D92">
-        <v>-0.3009973998900053</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2947621896602342</v>
+      </c>
+      <c r="E92">
+        <v>0.1052249583661824</v>
+      </c>
+      <c r="F92">
+        <v>-0.01758428987006403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1402900500385124</v>
+        <v>0.152948448007817</v>
       </c>
       <c r="C93">
-        <v>0.02187906175235887</v>
+        <v>0.03084369244169966</v>
       </c>
       <c r="D93">
-        <v>-0.2673263992217258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2648695403269581</v>
+      </c>
+      <c r="E93">
+        <v>0.07723735528526941</v>
+      </c>
+      <c r="F93">
+        <v>0.002706020795717134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1338098127446265</v>
+        <v>0.1260354907427149</v>
       </c>
       <c r="C94">
-        <v>0.02829050924527126</v>
+        <v>0.02627311568617106</v>
       </c>
       <c r="D94">
-        <v>0.03825232780917099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04058545016469426</v>
+      </c>
+      <c r="E94">
+        <v>-0.05758493046128418</v>
+      </c>
+      <c r="F94">
+        <v>0.03156791570969474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266561254629796</v>
+        <v>0.1294955240503949</v>
       </c>
       <c r="C95">
-        <v>0.01035786026457834</v>
+        <v>0.005015115228495122</v>
       </c>
       <c r="D95">
-        <v>0.08658859959264344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09688134343073908</v>
+      </c>
+      <c r="E95">
+        <v>-0.05601591679466294</v>
+      </c>
+      <c r="F95">
+        <v>0.002099948583705835</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1278165250096898</v>
+        <v>0.1217361809583427</v>
       </c>
       <c r="C96">
-        <v>-0.9861231509472248</v>
+        <v>-0.9857716269688493</v>
       </c>
       <c r="D96">
-        <v>-0.01852944212652929</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05132455052702729</v>
+      </c>
+      <c r="E96">
+        <v>-0.05126023200061257</v>
+      </c>
+      <c r="F96">
+        <v>0.04224209177018835</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1955693268530972</v>
+        <v>0.1974933293635631</v>
       </c>
       <c r="C97">
-        <v>-0.002845552890699685</v>
+        <v>-0.003331419760082543</v>
       </c>
       <c r="D97">
-        <v>-0.02165485990705321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02253364008819637</v>
+      </c>
+      <c r="E97">
+        <v>-0.02429145526616686</v>
+      </c>
+      <c r="F97">
+        <v>-0.1201705799391915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2002990066485092</v>
+        <v>0.2065412685693686</v>
       </c>
       <c r="C98">
-        <v>0.01290116038963873</v>
+        <v>0.009126383082505306</v>
       </c>
       <c r="D98">
-        <v>0.01156131969972016</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01359737685950743</v>
+      </c>
+      <c r="E98">
+        <v>0.07500373178394099</v>
+      </c>
+      <c r="F98">
+        <v>-0.09043327901965437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05572266313894428</v>
+        <v>0.05526443620373</v>
       </c>
       <c r="C99">
-        <v>-0.001593927070988935</v>
+        <v>-0.003722431650056813</v>
       </c>
       <c r="D99">
-        <v>0.03120989216093053</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03894661567507222</v>
+      </c>
+      <c r="E99">
+        <v>-0.02216575336620865</v>
+      </c>
+      <c r="F99">
+        <v>0.002874816043575629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1481171821030895</v>
+        <v>0.1329025358834893</v>
       </c>
       <c r="C100">
-        <v>-0.03679122239230077</v>
+        <v>-0.04949259460338887</v>
       </c>
       <c r="D100">
-        <v>0.3891185989212955</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3553688290371774</v>
+      </c>
+      <c r="E100">
+        <v>0.8844285367932602</v>
+      </c>
+      <c r="F100">
+        <v>-0.1473097302811728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02605982127159533</v>
+        <v>0.02895299080776996</v>
       </c>
       <c r="C101">
-        <v>0.009831255807082825</v>
+        <v>0.009095806975541222</v>
       </c>
       <c r="D101">
-        <v>0.02887263201855828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02956674390964093</v>
+      </c>
+      <c r="E101">
+        <v>-0.01270536033667235</v>
+      </c>
+      <c r="F101">
+        <v>-0.01518866275297894</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
